--- a/October'21/27.10.2021/Daily Sales Info.xlsx
+++ b/October'21/27.10.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="26"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -47355,9 +47355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49053,7 +49053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49471,38 +49471,42 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="30">
+        <v>100</v>
+      </c>
       <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30">
+        <v>650</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>188.375</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6661.625</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65.075000000000003</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>65.075000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -50257,7 +50261,7 @@
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="6">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="6"/>
@@ -50265,7 +50269,7 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
@@ -50285,15 +50289,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>188.375</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -50305,15 +50309,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6661.625</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>65.075000000000003</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>65.075000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50332,7 +50336,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -50340,7 +50344,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
@@ -50704,7 +50708,7 @@
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -50712,7 +50716,7 @@
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
@@ -51882,7 +51886,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -51890,7 +51894,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
@@ -53964,7 +53968,7 @@
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -53972,7 +53976,7 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
@@ -55142,7 +55146,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -55150,7 +55154,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
@@ -55514,7 +55518,7 @@
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -55522,7 +55526,7 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
@@ -56692,7 +56696,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -56700,7 +56704,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
@@ -56963,7 +56967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57538,7 +57542,7 @@
       </c>
       <c r="F11" s="21">
         <f>'1'!F11+'2'!F11+'3'!F11+'4'!F11+'5'!F11+'6'!F11+'7'!F11+'8'!F11+'9'!F11+'10'!F11+'11'!F11+'12'!F11+'13'!F11+'14'!F11+'15'!F11+'16'!F11+'17'!F11+'18'!F11+'19'!F11+'20'!F11+'21'!F11+'22'!F11+'23'!F11+'24'!F11+'25'!F11+'26'!F11+'27'!F11+'28'!F11+'29'!F11+'30'!F11+'31'!F11</f>
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="G11" s="21">
         <f>'1'!G11+'2'!G11+'3'!G11+'4'!G11+'5'!G11+'6'!G11+'7'!G11+'8'!G11+'9'!G11+'10'!G11+'11'!G11+'12'!G11+'13'!G11+'14'!G11+'15'!G11+'16'!G11+'17'!G11+'18'!G11+'19'!G11+'20'!G11+'21'!G11+'22'!G11+'23'!G11+'24'!G11+'25'!G11+'26'!G11+'27'!G11+'28'!G11+'29'!G11+'30'!G11+'31'!G11</f>
@@ -57546,7 +57550,7 @@
       </c>
       <c r="H11" s="21">
         <f>'1'!H11+'2'!H11+'3'!H11+'4'!H11+'5'!H11+'6'!H11+'7'!H11+'8'!H11+'9'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>2050</v>
+        <v>2700</v>
       </c>
       <c r="I11" s="21">
         <f>'1'!I11+'2'!I11+'3'!I11+'4'!I11+'5'!I11+'6'!I11+'7'!I11+'8'!I11+'9'!I11+'10'!I11+'11'!I11+'12'!I11+'13'!I11+'14'!I11+'15'!I11+'16'!I11+'17'!I11+'18'!I11+'19'!I11+'20'!I11+'21'!I11+'22'!I11+'23'!I11+'24'!I11+'25'!I11+'26'!I11+'27'!I11+'28'!I11+'29'!I11+'30'!I11+'31'!I11</f>
@@ -57566,15 +57570,15 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>206653</v>
+        <v>213503</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>236797</v>
+        <v>243647</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>5682.9575000000004</v>
+        <v>5871.3325000000004</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
@@ -57583,15 +57587,15 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>229943.04250000001</v>
+        <v>236604.66750000001</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>1963.2034999999998</v>
+        <v>2028.2784999999999</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>792.20349999999985</v>
+        <v>857.27849999999989</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -58826,7 +58830,7 @@
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="6">SUM(F7:F27)</f>
-        <v>4530</v>
+        <v>4630</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="6"/>
@@ -58834,7 +58838,7 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="6"/>
-        <v>19470</v>
+        <v>20120</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="6"/>
@@ -58854,15 +58858,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>5668609</v>
+        <v>5675459</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>6181664</v>
+        <v>6188514</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>155886.7475</v>
+        <v>156075.1225</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -58874,15 +58878,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>5982925.2524999995</v>
+        <v>5989586.8774999995</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>53851.785500000005</v>
+        <v>53916.860500000003</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>10999.785499999998</v>
+        <v>11064.860499999999</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58901,7 +58905,7 @@
       </c>
       <c r="F29" s="48">
         <f t="shared" si="7"/>
-        <v>8630</v>
+        <v>8530</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="7"/>
@@ -58909,7 +58913,7 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="7"/>
@@ -58964,7 +58968,7 @@
       </c>
       <c r="E31" s="57">
         <f>E29*20+F29*10+G29*9+H29*9</f>
-        <v>153960</v>
+        <v>147110</v>
       </c>
     </row>
   </sheetData>
@@ -59175,8 +59179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59305,15 +59309,15 @@
       </c>
       <c r="C7" s="84">
         <f>Total!E11*20+Total!F11*10+Total!G11*9+Total!H11*9</f>
-        <v>26550</v>
+        <v>33400</v>
       </c>
       <c r="D7" s="84">
         <f t="shared" si="0"/>
-        <v>8450</v>
+        <v>1600</v>
       </c>
       <c r="E7" s="88">
         <f t="shared" si="1"/>
-        <v>0.75857142857142856</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="F7" s="56"/>
     </row>
@@ -59647,15 +59651,15 @@
       </c>
       <c r="C24" s="82">
         <f>SUM(C3:C23)</f>
-        <v>324870</v>
+        <v>331720</v>
       </c>
       <c r="D24" s="82">
         <f>SUM(D3:D23)</f>
-        <v>675130</v>
+        <v>668280</v>
       </c>
       <c r="E24" s="83">
         <f>C24/B24</f>
-        <v>0.32486999999999999</v>
+        <v>0.33172000000000001</v>
       </c>
     </row>
   </sheetData>
